--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dhh-Ptch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Ptch2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H2">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I2">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J2">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.31195347166131</v>
+        <v>2.411293</v>
       </c>
       <c r="N2">
-        <v>2.31195347166131</v>
+        <v>7.233879</v>
       </c>
       <c r="O2">
-        <v>0.2684987586703394</v>
+        <v>0.2412413606327032</v>
       </c>
       <c r="P2">
-        <v>0.2684987586703394</v>
+        <v>0.2561068195015754</v>
       </c>
       <c r="Q2">
-        <v>4.324717396118111</v>
+        <v>6.265739234149668</v>
       </c>
       <c r="R2">
-        <v>4.324717396118111</v>
+        <v>56.391653107347</v>
       </c>
       <c r="S2">
-        <v>0.1466169471862477</v>
+        <v>0.1200294590604747</v>
       </c>
       <c r="T2">
-        <v>0.1466169471862477</v>
+        <v>0.1403633229384491</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H3">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I3">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J3">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.05104702983602</v>
+        <v>4.406047</v>
       </c>
       <c r="N3">
-        <v>4.05104702983602</v>
+        <v>13.218141</v>
       </c>
       <c r="O3">
-        <v>0.4704684208218701</v>
+        <v>0.440809463342547</v>
       </c>
       <c r="P3">
-        <v>0.4704684208218701</v>
+        <v>0.4679724462122428</v>
       </c>
       <c r="Q3">
-        <v>7.577848679556379</v>
+        <v>11.44910284872367</v>
       </c>
       <c r="R3">
-        <v>7.577848679556379</v>
+        <v>103.041925638513</v>
       </c>
       <c r="S3">
-        <v>0.2569048883132041</v>
+        <v>0.2193244197221273</v>
       </c>
       <c r="T3">
-        <v>0.2569048883132041</v>
+        <v>0.2564795725542208</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H4">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I4">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J4">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5118290219724611</v>
+        <v>0.816681</v>
       </c>
       <c r="N4">
-        <v>0.5118290219724611</v>
+        <v>2.450043</v>
       </c>
       <c r="O4">
-        <v>0.0594412728177913</v>
+        <v>0.08170605382376871</v>
       </c>
       <c r="P4">
-        <v>0.0594412728177913</v>
+        <v>0.08674083715971724</v>
       </c>
       <c r="Q4">
-        <v>0.9574223280418556</v>
+        <v>2.122143672911</v>
       </c>
       <c r="R4">
-        <v>0.9574223280418556</v>
+        <v>19.099293056199</v>
       </c>
       <c r="S4">
-        <v>0.03245861545345085</v>
+        <v>0.0406527861421103</v>
       </c>
       <c r="T4">
-        <v>0.03245861545345085</v>
+        <v>0.04753966396480873</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.87059015206326</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H5">
-        <v>1.87059015206326</v>
+        <v>7.795493</v>
       </c>
       <c r="I5">
-        <v>0.5460619181717067</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J5">
-        <v>0.5460619181717067</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.73583774035882</v>
+        <v>0.6208233333333333</v>
       </c>
       <c r="N5">
-        <v>1.73583774035882</v>
+        <v>1.86247</v>
       </c>
       <c r="O5">
-        <v>0.2015915476899992</v>
+        <v>0.06211118501395873</v>
       </c>
       <c r="P5">
-        <v>0.2015915476899992</v>
+        <v>0.06593851903205722</v>
       </c>
       <c r="Q5">
-        <v>3.247040982694951</v>
+        <v>1.613207983078889</v>
       </c>
       <c r="R5">
-        <v>3.247040982694951</v>
+        <v>14.51887184771</v>
       </c>
       <c r="S5">
-        <v>0.110081467218804</v>
+        <v>0.03090337378000964</v>
       </c>
       <c r="T5">
-        <v>0.110081467218804</v>
+        <v>0.03613863019732197</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160111037348424</v>
+        <v>2.598497666666667</v>
       </c>
       <c r="H6">
-        <v>0.160111037348424</v>
+        <v>7.795493</v>
       </c>
       <c r="I6">
-        <v>0.0467395490554178</v>
+        <v>0.4975492541812636</v>
       </c>
       <c r="J6">
-        <v>0.0467395490554178</v>
+        <v>0.5480655423843006</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.31195347166131</v>
+        <v>1.7405105</v>
       </c>
       <c r="N6">
-        <v>2.31195347166131</v>
+        <v>3.481021</v>
       </c>
       <c r="O6">
-        <v>0.2684987586703394</v>
+        <v>0.1741319371870223</v>
       </c>
       <c r="P6">
-        <v>0.2684987586703394</v>
+        <v>0.1232413780944074</v>
       </c>
       <c r="Q6">
-        <v>0.3701692686489825</v>
+        <v>4.522712473058834</v>
       </c>
       <c r="R6">
-        <v>0.3701692686489825</v>
+        <v>27.136274838353</v>
       </c>
       <c r="S6">
-        <v>0.01254951090219111</v>
+        <v>0.0866392154765416</v>
       </c>
       <c r="T6">
-        <v>0.01254951090219111</v>
+        <v>0.06754435272950003</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H7">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I7">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J7">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.05104702983602</v>
+        <v>2.411293</v>
       </c>
       <c r="N7">
-        <v>4.05104702983602</v>
+        <v>7.233879</v>
       </c>
       <c r="O7">
-        <v>0.4704684208218701</v>
+        <v>0.2412413606327032</v>
       </c>
       <c r="P7">
-        <v>0.4704684208218701</v>
+        <v>0.2561068195015754</v>
       </c>
       <c r="Q7">
-        <v>0.6486173422942971</v>
+        <v>2.129270582013</v>
       </c>
       <c r="R7">
-        <v>0.6486173422942971</v>
+        <v>19.163435238117</v>
       </c>
       <c r="S7">
-        <v>0.02198948183402874</v>
+        <v>0.04078931257774999</v>
       </c>
       <c r="T7">
-        <v>0.02198948183402874</v>
+        <v>0.04769931897221549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H8">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I8">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J8">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5118290219724611</v>
+        <v>4.406047</v>
       </c>
       <c r="N8">
-        <v>0.5118290219724611</v>
+        <v>13.218141</v>
       </c>
       <c r="O8">
-        <v>0.0594412728177913</v>
+        <v>0.440809463342547</v>
       </c>
       <c r="P8">
-        <v>0.0594412728177913</v>
+        <v>0.4679724462122428</v>
       </c>
       <c r="Q8">
-        <v>0.08194947565304003</v>
+        <v>3.890720148927</v>
       </c>
       <c r="R8">
-        <v>0.08194947565304003</v>
+        <v>35.016481340343</v>
       </c>
       <c r="S8">
-        <v>0.002778258286783629</v>
+        <v>0.07453247212813109</v>
       </c>
       <c r="T8">
-        <v>0.002778258286783629</v>
+        <v>0.08715881531592101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.160111037348424</v>
+        <v>0.883041</v>
       </c>
       <c r="H9">
-        <v>0.160111037348424</v>
+        <v>2.649123</v>
       </c>
       <c r="I9">
-        <v>0.0467395490554178</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J9">
-        <v>0.0467395490554178</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.73583774035882</v>
+        <v>0.816681</v>
       </c>
       <c r="N9">
-        <v>1.73583774035882</v>
+        <v>2.450043</v>
       </c>
       <c r="O9">
-        <v>0.2015915476899992</v>
+        <v>0.08170605382376871</v>
       </c>
       <c r="P9">
-        <v>0.2015915476899992</v>
+        <v>0.08674083715971724</v>
       </c>
       <c r="Q9">
-        <v>0.277926781277395</v>
+        <v>0.721162806921</v>
       </c>
       <c r="R9">
-        <v>0.277926781277395</v>
+        <v>6.490465262289</v>
       </c>
       <c r="S9">
-        <v>0.009422298032414312</v>
+        <v>0.01381493521745779</v>
       </c>
       <c r="T9">
-        <v>0.009422298032414312</v>
+        <v>0.01615528578134134</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H10">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I10">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J10">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.31195347166131</v>
+        <v>0.6208233333333333</v>
       </c>
       <c r="N10">
-        <v>2.31195347166131</v>
+        <v>1.86247</v>
       </c>
       <c r="O10">
-        <v>0.2684987586703394</v>
+        <v>0.06211118501395873</v>
       </c>
       <c r="P10">
-        <v>0.2684987586703394</v>
+        <v>0.06593851903205722</v>
       </c>
       <c r="Q10">
-        <v>3.224943032564453</v>
+        <v>0.5482124570899999</v>
       </c>
       <c r="R10">
-        <v>3.224943032564453</v>
+        <v>4.933912113809999</v>
       </c>
       <c r="S10">
-        <v>0.1093323005819006</v>
+        <v>0.01050181665973152</v>
       </c>
       <c r="T10">
-        <v>0.1093323005819006</v>
+        <v>0.01228090082875068</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.39489962583334</v>
+        <v>0.883041</v>
       </c>
       <c r="H11">
-        <v>1.39489962583334</v>
+        <v>2.649123</v>
       </c>
       <c r="I11">
-        <v>0.4071985327728755</v>
+        <v>0.1690809257200836</v>
       </c>
       <c r="J11">
-        <v>0.4071985327728755</v>
+        <v>0.1862477503138962</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.05104702983602</v>
+        <v>1.7405105</v>
       </c>
       <c r="N11">
-        <v>4.05104702983602</v>
+        <v>3.481021</v>
       </c>
       <c r="O11">
-        <v>0.4704684208218701</v>
+        <v>0.1741319371870223</v>
       </c>
       <c r="P11">
-        <v>0.4704684208218701</v>
+        <v>0.1232413780944074</v>
       </c>
       <c r="Q11">
-        <v>5.650803986151528</v>
+        <v>1.5369421324305</v>
       </c>
       <c r="R11">
-        <v>5.650803986151528</v>
+        <v>9.221652794582999</v>
       </c>
       <c r="S11">
-        <v>0.1915740506746373</v>
+        <v>0.02944238913701318</v>
       </c>
       <c r="T11">
-        <v>0.1915740506746373</v>
+        <v>0.02295342941566766</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.39489962583334</v>
+        <v>0.255631</v>
       </c>
       <c r="H12">
-        <v>1.39489962583334</v>
+        <v>0.7668929999999999</v>
       </c>
       <c r="I12">
-        <v>0.4071985327728755</v>
+        <v>0.04894713396405228</v>
       </c>
       <c r="J12">
-        <v>0.4071985327728755</v>
+        <v>0.05391674753549563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5118290219724611</v>
+        <v>2.411293</v>
       </c>
       <c r="N12">
-        <v>0.5118290219724611</v>
+        <v>7.233879</v>
       </c>
       <c r="O12">
-        <v>0.0594412728177913</v>
+        <v>0.2412413606327032</v>
       </c>
       <c r="P12">
-        <v>0.0594412728177913</v>
+        <v>0.2561068195015754</v>
       </c>
       <c r="Q12">
-        <v>0.7139501112400303</v>
+        <v>0.6164012408830001</v>
       </c>
       <c r="R12">
-        <v>0.7139501112400303</v>
+        <v>5.547611167946999</v>
       </c>
       <c r="S12">
-        <v>0.02420439907755683</v>
+        <v>0.01180807319655917</v>
       </c>
       <c r="T12">
-        <v>0.02420439907755683</v>
+        <v>0.01380844672918519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.255631</v>
+      </c>
+      <c r="H13">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J13">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.406047</v>
+      </c>
+      <c r="N13">
+        <v>13.218141</v>
+      </c>
+      <c r="O13">
+        <v>0.440809463342547</v>
+      </c>
+      <c r="P13">
+        <v>0.4679724462122428</v>
+      </c>
+      <c r="Q13">
+        <v>1.126322200657</v>
+      </c>
+      <c r="R13">
+        <v>10.136899805913</v>
+      </c>
+      <c r="S13">
+        <v>0.02157635985484964</v>
+      </c>
+      <c r="T13">
+        <v>0.0252315522359938</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.255631</v>
+      </c>
+      <c r="H14">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J14">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.816681</v>
+      </c>
+      <c r="N14">
+        <v>2.450043</v>
+      </c>
+      <c r="O14">
+        <v>0.08170605382376871</v>
+      </c>
+      <c r="P14">
+        <v>0.08674083715971724</v>
+      </c>
+      <c r="Q14">
+        <v>0.208768980711</v>
+      </c>
+      <c r="R14">
+        <v>1.878920826399</v>
+      </c>
+      <c r="S14">
+        <v>0.003999277162186073</v>
+      </c>
+      <c r="T14">
+        <v>0.004676783818158012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.255631</v>
+      </c>
+      <c r="H15">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J15">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.6208233333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.86247</v>
+      </c>
+      <c r="O15">
+        <v>0.06211118501395873</v>
+      </c>
+      <c r="P15">
+        <v>0.06593851903205722</v>
+      </c>
+      <c r="Q15">
+        <v>0.1587016895233333</v>
+      </c>
+      <c r="R15">
+        <v>1.42831520571</v>
+      </c>
+      <c r="S15">
+        <v>0.003040164493544274</v>
+      </c>
+      <c r="T15">
+        <v>0.003555190483515903</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.255631</v>
+      </c>
+      <c r="H16">
+        <v>0.7668929999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.04894713396405228</v>
+      </c>
+      <c r="J16">
+        <v>0.05391674753549563</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.7405105</v>
+      </c>
+      <c r="N16">
+        <v>3.481021</v>
+      </c>
+      <c r="O16">
+        <v>0.1741319371870223</v>
+      </c>
+      <c r="P16">
+        <v>0.1232413780944074</v>
+      </c>
+      <c r="Q16">
+        <v>0.4449284396255</v>
+      </c>
+      <c r="R16">
+        <v>2.669570637753</v>
+      </c>
+      <c r="S16">
+        <v>0.008523259256913119</v>
+      </c>
+      <c r="T16">
+        <v>0.006644774268642724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.123881</v>
+      </c>
+      <c r="I17">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J17">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.411293</v>
+      </c>
+      <c r="N17">
+        <v>7.233879</v>
+      </c>
+      <c r="O17">
+        <v>0.2412413606327032</v>
+      </c>
+      <c r="P17">
+        <v>0.2561068195015754</v>
+      </c>
+      <c r="Q17">
+        <v>0.09957112937766667</v>
+      </c>
+      <c r="R17">
+        <v>0.896140164399</v>
+      </c>
+      <c r="S17">
+        <v>0.001907431565632946</v>
+      </c>
+      <c r="T17">
+        <v>0.002230564354164389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.123881</v>
+      </c>
+      <c r="I18">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J18">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.406047</v>
+      </c>
+      <c r="N18">
+        <v>13.218141</v>
+      </c>
+      <c r="O18">
+        <v>0.440809463342547</v>
+      </c>
+      <c r="P18">
+        <v>0.4679724462122428</v>
+      </c>
+      <c r="Q18">
+        <v>0.1819418361356667</v>
+      </c>
+      <c r="R18">
+        <v>1.637476525221</v>
+      </c>
+      <c r="S18">
+        <v>0.003485363714597249</v>
+      </c>
+      <c r="T18">
+        <v>0.004075809692547916</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="H13">
-        <v>1.39489962583334</v>
-      </c>
-      <c r="I13">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="J13">
-        <v>0.4071985327728755</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.73583774035882</v>
-      </c>
-      <c r="N13">
-        <v>1.73583774035882</v>
-      </c>
-      <c r="O13">
-        <v>0.2015915476899992</v>
-      </c>
-      <c r="P13">
-        <v>0.2015915476899992</v>
-      </c>
-      <c r="Q13">
-        <v>2.421319414533909</v>
-      </c>
-      <c r="R13">
-        <v>2.421319414533909</v>
-      </c>
-      <c r="S13">
-        <v>0.08208778243878083</v>
-      </c>
-      <c r="T13">
-        <v>0.08208778243878083</v>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.123881</v>
+      </c>
+      <c r="I19">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J19">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.816681</v>
+      </c>
+      <c r="N19">
+        <v>2.450043</v>
+      </c>
+      <c r="O19">
+        <v>0.08170605382376871</v>
+      </c>
+      <c r="P19">
+        <v>0.08674083715971724</v>
+      </c>
+      <c r="Q19">
+        <v>0.033723752987</v>
+      </c>
+      <c r="R19">
+        <v>0.303513776883</v>
+      </c>
+      <c r="S19">
+        <v>0.0006460281344708753</v>
+      </c>
+      <c r="T19">
+        <v>0.000755470001913217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.123881</v>
+      </c>
+      <c r="I20">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J20">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.6208233333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.86247</v>
+      </c>
+      <c r="O20">
+        <v>0.06211118501395873</v>
+      </c>
+      <c r="P20">
+        <v>0.06593851903205722</v>
+      </c>
+      <c r="Q20">
+        <v>0.02563607178555555</v>
+      </c>
+      <c r="R20">
+        <v>0.23072464607</v>
+      </c>
+      <c r="S20">
+        <v>0.0004910966948775882</v>
+      </c>
+      <c r="T20">
+        <v>0.0005742920489409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04129366666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.123881</v>
+      </c>
+      <c r="I21">
+        <v>0.007906735232425854</v>
+      </c>
+      <c r="J21">
+        <v>0.00870950784717651</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.7405105</v>
+      </c>
+      <c r="N21">
+        <v>3.481021</v>
+      </c>
+      <c r="O21">
+        <v>0.1741319371870223</v>
+      </c>
+      <c r="P21">
+        <v>0.1232413780944074</v>
+      </c>
+      <c r="Q21">
+        <v>0.07187206041683333</v>
+      </c>
+      <c r="R21">
+        <v>0.4312323625010001</v>
+      </c>
+      <c r="S21">
+        <v>0.001376815122847195</v>
+      </c>
+      <c r="T21">
+        <v>0.001073371749610088</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.4441305</v>
+      </c>
+      <c r="H22">
+        <v>2.888261</v>
+      </c>
+      <c r="I22">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J22">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.411293</v>
+      </c>
+      <c r="N22">
+        <v>7.233879</v>
+      </c>
+      <c r="O22">
+        <v>0.2412413606327032</v>
+      </c>
+      <c r="P22">
+        <v>0.2561068195015754</v>
+      </c>
+      <c r="Q22">
+        <v>3.4822217657365</v>
+      </c>
+      <c r="R22">
+        <v>20.893330594419</v>
+      </c>
+      <c r="S22">
+        <v>0.06670708423228637</v>
+      </c>
+      <c r="T22">
+        <v>0.05200516650756121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.4441305</v>
+      </c>
+      <c r="H23">
+        <v>2.888261</v>
+      </c>
+      <c r="I23">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J23">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.406047</v>
+      </c>
+      <c r="N23">
+        <v>13.218141</v>
+      </c>
+      <c r="O23">
+        <v>0.440809463342547</v>
+      </c>
+      <c r="P23">
+        <v>0.4679724462122428</v>
+      </c>
+      <c r="Q23">
+        <v>6.3629068571335</v>
+      </c>
+      <c r="R23">
+        <v>38.17744114280099</v>
+      </c>
+      <c r="S23">
+        <v>0.1218908479228417</v>
+      </c>
+      <c r="T23">
+        <v>0.09502669641355926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.4441305</v>
+      </c>
+      <c r="H24">
+        <v>2.888261</v>
+      </c>
+      <c r="I24">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J24">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.816681</v>
+      </c>
+      <c r="N24">
+        <v>2.450043</v>
+      </c>
+      <c r="O24">
+        <v>0.08170605382376871</v>
+      </c>
+      <c r="P24">
+        <v>0.08674083715971724</v>
+      </c>
+      <c r="Q24">
+        <v>1.1793939408705</v>
+      </c>
+      <c r="R24">
+        <v>7.076363645223</v>
+      </c>
+      <c r="S24">
+        <v>0.02259302716754366</v>
+      </c>
+      <c r="T24">
+        <v>0.01761363359349594</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.4441305</v>
+      </c>
+      <c r="H25">
+        <v>2.888261</v>
+      </c>
+      <c r="I25">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J25">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.6208233333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.86247</v>
+      </c>
+      <c r="O25">
+        <v>0.06211118501395873</v>
+      </c>
+      <c r="P25">
+        <v>0.06593851903205722</v>
+      </c>
+      <c r="Q25">
+        <v>0.8965499107783332</v>
+      </c>
+      <c r="R25">
+        <v>5.37929946467</v>
+      </c>
+      <c r="S25">
+        <v>0.0171747333857957</v>
+      </c>
+      <c r="T25">
+        <v>0.01338950547352776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.4441305</v>
+      </c>
+      <c r="H26">
+        <v>2.888261</v>
+      </c>
+      <c r="I26">
+        <v>0.2765159509021746</v>
+      </c>
+      <c r="J26">
+        <v>0.203060451919131</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7405105</v>
+      </c>
+      <c r="N26">
+        <v>3.481021</v>
+      </c>
+      <c r="O26">
+        <v>0.1741319371870223</v>
+      </c>
+      <c r="P26">
+        <v>0.1232413780944074</v>
+      </c>
+      <c r="Q26">
+        <v>2.51352429862025</v>
+      </c>
+      <c r="R26">
+        <v>10.054097194481</v>
+      </c>
+      <c r="S26">
+        <v>0.04815025819370722</v>
+      </c>
+      <c r="T26">
+        <v>0.02502544993098686</v>
       </c>
     </row>
   </sheetData>
